--- a/nms-exp.xlsx
+++ b/nms-exp.xlsx
@@ -132,7 +132,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -176,6 +176,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Monaco"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,10 +206,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -488,9 +494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,6 +575,12 @@
       <c r="I2" s="1">
         <v>69.599999999999994</v>
       </c>
+      <c r="J2" s="1">
+        <v>56920</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.76570000000000005</v>
+      </c>
       <c r="L2" s="1">
         <f>I2-I$2</f>
         <v>0</v>
@@ -877,7 +889,7 @@
       <c r="H11" s="1">
         <v>59.4</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <v>71.5</v>
       </c>
       <c r="J11" s="1">
@@ -994,7 +1006,7 @@
       <c r="H14" s="1">
         <v>59.4</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="3">
         <v>71.599999999999994</v>
       </c>
       <c r="J14" s="1">

--- a/nms-exp.xlsx
+++ b/nms-exp.xlsx
@@ -496,7 +496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/nms-exp.xlsx
+++ b/nms-exp.xlsx
@@ -1,33 +1,59 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
-  <workbookPr checkCompatibility="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oda/posetrack/nise_embedding/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView windowWidth="24620" windowHeight="11100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+  <si>
+    <t xml:space="preserve">Head </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shou </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elb  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wri  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Knee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ankl </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total</t>
+  </si>
+  <si>
+    <t>preds</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>delta-baseline</t>
+  </si>
+  <si>
+    <t>delta-nms</t>
+  </si>
+  <si>
+    <t>baseline-nonms</t>
+  </si>
   <si>
     <t>Detection only</t>
   </si>
@@ -80,117 +106,376 @@
     <t>propGT</t>
   </si>
   <si>
-    <t xml:space="preserve">Head </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shou </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elb  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wri  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Knee </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ankl </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total</t>
-  </si>
-  <si>
-    <t>preds</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta-baseline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delta-nms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseline-nonms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>propDET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Monaco"/>
+      <name val="Orator Std"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Monaco"/>
+      <name val="Orator Std"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Orator Std"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Monaco"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,28 +483,301 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="47">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="标题" xfId="32" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="33" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="34" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="35" builtinId="40"/>
+    <cellStyle name="注释" xfId="36" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="37" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="38" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51"/>
+    <cellStyle name="千位分隔[0]" xfId="40" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="41" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="43" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="45" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="46" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -272,7 +830,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -307,7 +865,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -481,75 +1039,73 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="19" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.8359375" style="1" customWidth="1"/>
+    <col min="3" max="11" width="10.8359375" style="1"/>
+    <col min="12" max="12" width="19" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.8359375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:13">
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>79.8</v>
@@ -564,7 +1120,7 @@
         <v>59.2</v>
       </c>
       <c r="F2" s="1">
-        <v>70.099999999999994</v>
+        <v>70.1</v>
       </c>
       <c r="G2" s="1">
         <v>65.5</v>
@@ -573,27 +1129,27 @@
         <v>58.3</v>
       </c>
       <c r="I2" s="1">
-        <v>69.599999999999994</v>
+        <v>69.6</v>
       </c>
       <c r="J2" s="1">
         <v>56920</v>
       </c>
       <c r="K2" s="1">
-        <v>0.76570000000000005</v>
+        <v>0.7657</v>
       </c>
       <c r="L2" s="1">
         <f>I2-I$2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
         <v>83.4</v>
@@ -608,7 +1164,7 @@
         <v>61.3</v>
       </c>
       <c r="F4" s="1">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="G4" s="1">
         <v>65.7</v>
@@ -623,16 +1179,16 @@
         <v>36694</v>
       </c>
       <c r="K4" s="1">
-        <v>0.72640000000000005</v>
+        <v>0.7264</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L18" si="0">I4-I$2</f>
-        <v>1.6000000000000085</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.60000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>80.3</v>
@@ -641,7 +1197,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="1">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="E5" s="1">
         <v>59.6</v>
@@ -662,16 +1218,16 @@
         <v>56920</v>
       </c>
       <c r="K5" s="1">
-        <v>0.76559999999999995</v>
+        <v>0.7656</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.400000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
         <v>80.3</v>
@@ -680,7 +1236,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="1">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="E6" s="1">
         <v>59.6</v>
@@ -701,22 +1257,22 @@
         <v>56920</v>
       </c>
       <c r="K6" s="1">
-        <v>0.76559999999999995</v>
+        <v>0.7656</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.400000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2">
         <v>83.1</v>
       </c>
       <c r="C7" s="1">
-        <v>80.400000000000006</v>
+        <v>80.4</v>
       </c>
       <c r="D7" s="1">
         <v>72.5</v>
@@ -740,16 +1296,16 @@
         <v>29745</v>
       </c>
       <c r="K7" s="1">
-        <v>0.72409999999999997</v>
+        <v>0.7241</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>1.4000000000000057</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.40000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>82.1</v>
@@ -758,7 +1314,7 @@
         <v>80.5</v>
       </c>
       <c r="D8" s="1">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="E8" s="1">
         <v>60.6</v>
@@ -779,16 +1335,16 @@
         <v>39763</v>
       </c>
       <c r="K8" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.7647</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>1.6000000000000085</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.60000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
         <v>82.1</v>
@@ -797,7 +1353,7 @@
         <v>80.5</v>
       </c>
       <c r="D9" s="1">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="E9" s="1">
         <v>60.6</v>
@@ -818,25 +1374,25 @@
         <v>39763</v>
       </c>
       <c r="K9" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.7647</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>1.6000000000000085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.60000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2">
         <v>82.7</v>
       </c>
       <c r="C10" s="1">
-        <v>80.099999999999994</v>
+        <v>80.1</v>
       </c>
       <c r="D10" s="1">
-        <v>72.400000000000006</v>
+        <v>72.4</v>
       </c>
       <c r="E10" s="1">
         <v>61</v>
@@ -845,7 +1401,7 @@
         <v>69.7</v>
       </c>
       <c r="G10" s="1">
-        <v>65.400000000000006</v>
+        <v>65.4</v>
       </c>
       <c r="H10" s="1">
         <v>57.9</v>
@@ -857,16 +1413,16 @@
         <v>26915</v>
       </c>
       <c r="K10" s="1">
-        <v>0.72230000000000005</v>
+        <v>0.7223</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>1.1000000000000085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.10000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2">
         <v>82.7</v>
@@ -881,7 +1437,7 @@
         <v>60.9</v>
       </c>
       <c r="F11" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="G11" s="1">
         <v>67</v>
@@ -896,16 +1452,16 @@
         <v>33318</v>
       </c>
       <c r="K11" s="1">
-        <v>0.76200000000000001</v>
+        <v>0.762</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>1.9000000000000057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.90000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2">
         <v>82.7</v>
@@ -920,7 +1476,7 @@
         <v>60.9</v>
       </c>
       <c r="F12" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="G12" s="1">
         <v>67</v>
@@ -935,16 +1491,16 @@
         <v>33318</v>
       </c>
       <c r="K12" s="1">
-        <v>0.76200000000000001</v>
+        <v>0.762</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>1.9000000000000057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1.90000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2">
         <v>82.2</v>
@@ -953,7 +1509,7 @@
         <v>79.7</v>
       </c>
       <c r="D13" s="1">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="E13" s="1">
         <v>60.8</v>
@@ -974,22 +1530,22 @@
         <v>24995</v>
       </c>
       <c r="K13" s="1">
-        <v>0.72050000000000003</v>
+        <v>0.7205</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>0.90000000000000568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
         <v>83</v>
       </c>
       <c r="C14" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="D14" s="1">
         <v>72.8</v>
@@ -998,16 +1554,16 @@
         <v>61.1</v>
       </c>
       <c r="F14" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="G14" s="1">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="H14" s="1">
         <v>59.4</v>
       </c>
       <c r="I14" s="3">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="J14" s="1">
         <v>29480</v>
@@ -1020,15 +1576,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>83</v>
       </c>
       <c r="C15" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="D15" s="1">
         <v>72.8</v>
@@ -1037,16 +1593,16 @@
         <v>61.1</v>
       </c>
       <c r="F15" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="G15" s="1">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="H15" s="1">
         <v>59.4</v>
       </c>
       <c r="I15" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="J15" s="1">
         <v>29480</v>
@@ -1059,15 +1615,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>81.900000000000006</v>
+        <v>81.9</v>
       </c>
       <c r="C16" s="1">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="D16" s="1">
         <v>72</v>
@@ -1076,7 +1632,7 @@
         <v>60.7</v>
       </c>
       <c r="F16" s="1">
-        <v>69.400000000000006</v>
+        <v>69.4</v>
       </c>
       <c r="G16" s="1">
         <v>65.2</v>
@@ -1091,22 +1647,22 @@
         <v>23476</v>
       </c>
       <c r="K16" s="1">
-        <v>0.71760000000000002</v>
+        <v>0.7176</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>0.70000000000000284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.700000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>83</v>
       </c>
       <c r="C17" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="D17" s="1">
         <v>72.8</v>
@@ -1115,7 +1671,7 @@
         <v>61.1</v>
       </c>
       <c r="F17" s="1">
-        <v>71.400000000000006</v>
+        <v>71.4</v>
       </c>
       <c r="G17" s="1">
         <v>66.8</v>
@@ -1124,28 +1680,28 @@
         <v>59.3</v>
       </c>
       <c r="I17" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="J17" s="1">
         <v>26763</v>
       </c>
       <c r="K17" s="1">
-        <v>0.75390000000000001</v>
+        <v>0.7539</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>83</v>
       </c>
       <c r="C18" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="D18" s="1">
         <v>72.8</v>
@@ -1154,7 +1710,7 @@
         <v>61.1</v>
       </c>
       <c r="F18" s="1">
-        <v>71.400000000000006</v>
+        <v>71.4</v>
       </c>
       <c r="G18" s="1">
         <v>66.8</v>
@@ -1163,27 +1719,27 @@
         <v>59.3</v>
       </c>
       <c r="I18" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="J18" s="1">
         <v>26763</v>
       </c>
       <c r="K18" s="1">
-        <v>0.75390000000000001</v>
+        <v>0.7539</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2">
         <v>83.9</v>
@@ -1201,62 +1757,62 @@
         <v>71.2</v>
       </c>
       <c r="G21" s="1">
-        <v>66.599999999999994</v>
+        <v>66.6</v>
       </c>
       <c r="H21" s="1">
         <v>59.4</v>
       </c>
       <c r="I21" s="1">
-        <v>71.900000000000006</v>
+        <v>71.9</v>
       </c>
       <c r="J21" s="1">
         <v>37415</v>
       </c>
       <c r="K21" s="1">
-        <v>0.74390000000000001</v>
+        <v>0.7439</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" ref="L21:L35" si="1">I21-I$2</f>
-        <v>2.3000000000000114</v>
+        <v>2.30000000000001</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" ref="M21:M35" si="2">I21-I4</f>
-        <v>0.70000000000000284</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.700000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2">
         <v>80.7</v>
       </c>
       <c r="C22" s="1">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="D22" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="E22" s="1">
         <v>59.9</v>
       </c>
       <c r="F22" s="1">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="G22" s="1">
-        <v>66.599999999999994</v>
+        <v>66.6</v>
       </c>
       <c r="H22" s="1">
         <v>59.5</v>
       </c>
       <c r="I22" s="1">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="J22" s="1">
         <v>58440</v>
       </c>
       <c r="K22" s="1">
-        <v>0.78410000000000002</v>
+        <v>0.7841</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="1"/>
@@ -1264,27 +1820,27 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" si="2"/>
-        <v>0.59999999999999432</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.599999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2">
-        <v>74.599999999999994</v>
+        <v>74.6</v>
       </c>
       <c r="C23" s="1">
-        <v>74.099999999999994</v>
+        <v>74.1</v>
       </c>
       <c r="D23" s="1">
-        <v>67.400000000000006</v>
+        <v>67.4</v>
       </c>
       <c r="E23" s="1">
         <v>56.1</v>
       </c>
       <c r="F23" s="1">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="G23" s="1">
         <v>63.2</v>
@@ -1293,7 +1849,7 @@
         <v>56.4</v>
       </c>
       <c r="I23" s="1">
-        <v>66.099999999999994</v>
+        <v>66.1</v>
       </c>
       <c r="J23" s="1">
         <v>65294</v>
@@ -1307,12 +1863,12 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" si="2"/>
-        <v>-3.9000000000000057</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.90000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B24" s="2">
         <v>83.6</v>
@@ -1321,13 +1877,13 @@
         <v>81.2</v>
       </c>
       <c r="D24" s="1">
-        <v>73.099999999999994</v>
+        <v>73.1</v>
       </c>
       <c r="E24" s="1">
         <v>61.5</v>
       </c>
       <c r="F24" s="1">
-        <v>70.900000000000006</v>
+        <v>70.9</v>
       </c>
       <c r="G24" s="1">
         <v>66.5</v>
@@ -1342,26 +1898,26 @@
         <v>30241</v>
       </c>
       <c r="K24" s="1">
-        <v>0.74029999999999996</v>
+        <v>0.7403</v>
       </c>
       <c r="L24" s="1">
         <f t="shared" si="1"/>
-        <v>2.1000000000000085</v>
+        <v>2.10000000000001</v>
       </c>
       <c r="M24" s="1">
         <f t="shared" si="2"/>
-        <v>0.70000000000000284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.700000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2">
         <v>82.4</v>
       </c>
       <c r="C25" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="D25" s="1">
         <v>72.7</v>
@@ -1373,7 +1929,7 @@
         <v>72</v>
       </c>
       <c r="G25" s="1">
-        <v>67.400000000000006</v>
+        <v>67.4</v>
       </c>
       <c r="H25" s="1">
         <v>60.3</v>
@@ -1385,29 +1941,29 @@
         <v>40884</v>
       </c>
       <c r="K25" s="1">
-        <v>0.78469999999999995</v>
+        <v>0.7847</v>
       </c>
       <c r="L25" s="1">
         <f t="shared" si="1"/>
-        <v>2.1000000000000085</v>
+        <v>2.10000000000001</v>
       </c>
       <c r="M25" s="1">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B26" s="2">
         <v>76.3</v>
       </c>
       <c r="C26" s="1">
-        <v>75.599999999999994</v>
+        <v>75.6</v>
       </c>
       <c r="D26" s="1">
-        <v>68.599999999999994</v>
+        <v>68.6</v>
       </c>
       <c r="E26" s="1">
         <v>57.1</v>
@@ -1416,7 +1972,7 @@
         <v>67.8</v>
       </c>
       <c r="G26" s="1">
-        <v>64.099999999999994</v>
+        <v>64.1</v>
       </c>
       <c r="H26" s="1">
         <v>57.2</v>
@@ -1428,26 +1984,26 @@
         <v>45973</v>
       </c>
       <c r="K26" s="1">
-        <v>0.67849999999999999</v>
+        <v>0.6785</v>
       </c>
       <c r="L26" s="1">
         <f t="shared" si="1"/>
-        <v>-2.2999999999999972</v>
+        <v>-2.3</v>
       </c>
       <c r="M26" s="1">
         <f t="shared" si="2"/>
-        <v>-3.9000000000000057</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.90000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2">
         <v>83.3</v>
       </c>
       <c r="C27" s="1">
-        <v>80.900000000000006</v>
+        <v>80.9</v>
       </c>
       <c r="D27" s="1">
         <v>73</v>
@@ -1456,7 +2012,7 @@
         <v>61.3</v>
       </c>
       <c r="F27" s="1">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="G27" s="1">
         <v>66.3</v>
@@ -1471,26 +2027,26 @@
         <v>27323</v>
       </c>
       <c r="K27" s="1">
-        <v>0.73760000000000003</v>
+        <v>0.7376</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="1"/>
-        <v>1.9000000000000057</v>
+        <v>1.90000000000001</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="2"/>
-        <v>0.79999999999999716</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.799999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2">
         <v>82.8</v>
       </c>
       <c r="C28" s="1">
-        <v>81.099999999999994</v>
+        <v>81.1</v>
       </c>
       <c r="D28" s="1">
         <v>73</v>
@@ -1502,38 +2058,38 @@
         <v>72.2</v>
       </c>
       <c r="G28" s="1">
-        <v>67.599999999999994</v>
+        <v>67.6</v>
       </c>
       <c r="H28" s="1">
         <v>60.4</v>
       </c>
       <c r="I28" s="1">
-        <v>71.900000000000006</v>
+        <v>71.9</v>
       </c>
       <c r="J28" s="1">
         <v>34236</v>
       </c>
       <c r="K28" s="1">
-        <v>0.78190000000000004</v>
+        <v>0.7819</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" si="1"/>
-        <v>2.3000000000000114</v>
+        <v>2.30000000000001</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" si="2"/>
-        <v>0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.400000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B29" s="2">
-        <v>76.900000000000006</v>
+        <v>76.9</v>
       </c>
       <c r="C29" s="1">
-        <v>76.099999999999994</v>
+        <v>76.1</v>
       </c>
       <c r="D29" s="1">
         <v>69</v>
@@ -1557,20 +2113,20 @@
         <v>38455</v>
       </c>
       <c r="K29" s="1">
-        <v>0.68330000000000002</v>
+        <v>0.6833</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="1"/>
-        <v>-1.8999999999999915</v>
+        <v>-1.89999999999999</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="2"/>
-        <v>-3.7999999999999972</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B30" s="2">
         <v>82.9</v>
@@ -1600,20 +2156,20 @@
         <v>25335</v>
       </c>
       <c r="K30" s="1">
-        <v>0.73529999999999995</v>
+        <v>0.7353</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="1"/>
-        <v>1.7000000000000028</v>
+        <v>1.7</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="2"/>
-        <v>0.79999999999999716</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.799999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2">
         <v>83.1</v>
@@ -1622,7 +2178,7 @@
         <v>81.2</v>
       </c>
       <c r="D31" s="1">
-        <v>73.099999999999994</v>
+        <v>73.1</v>
       </c>
       <c r="E31" s="1">
         <v>61.2</v>
@@ -1631,7 +2187,7 @@
         <v>72.2</v>
       </c>
       <c r="G31" s="1">
-        <v>67.599999999999994</v>
+        <v>67.6</v>
       </c>
       <c r="H31" s="1">
         <v>60.4</v>
@@ -1643,23 +2199,23 @@
         <v>30224</v>
       </c>
       <c r="K31" s="1">
-        <v>0.77769999999999995</v>
+        <v>0.7777</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="1"/>
-        <v>2.4000000000000057</v>
+        <v>2.40000000000001</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="2"/>
-        <v>0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.400000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B32" s="2">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="C32" s="1">
         <v>76.3</v>
@@ -1671,7 +2227,7 @@
         <v>57.6</v>
       </c>
       <c r="F32" s="1">
-        <v>68.099999999999994</v>
+        <v>68.1</v>
       </c>
       <c r="G32" s="1">
         <v>64.3</v>
@@ -1680,26 +2236,26 @@
         <v>57.5</v>
       </c>
       <c r="I32" s="1">
-        <v>67.900000000000006</v>
+        <v>67.9</v>
       </c>
       <c r="J32" s="1">
         <v>33757</v>
       </c>
       <c r="K32" s="1">
-        <v>0.68479999999999996</v>
+        <v>0.6848</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="1"/>
-        <v>-1.6999999999999886</v>
+        <v>-1.69999999999999</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="2"/>
-        <v>-3.6999999999999886</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.69999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2">
         <v>82.5</v>
@@ -1708,7 +2264,7 @@
         <v>80.2</v>
       </c>
       <c r="D33" s="1">
-        <v>72.599999999999994</v>
+        <v>72.6</v>
       </c>
       <c r="E33" s="1">
         <v>61.1</v>
@@ -1717,19 +2273,19 @@
         <v>70.3</v>
       </c>
       <c r="G33" s="1">
-        <v>66.099999999999994</v>
+        <v>66.1</v>
       </c>
       <c r="H33" s="1">
         <v>59.1</v>
       </c>
       <c r="I33" s="1">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="J33" s="1">
         <v>23799</v>
       </c>
       <c r="K33" s="1">
-        <v>0.73270000000000002</v>
+        <v>0.7327</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="1"/>
@@ -1737,12 +2293,12 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" si="2"/>
-        <v>0.79999999999999716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.799999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B34" s="2">
         <v>83.3</v>
@@ -1751,7 +2307,7 @@
         <v>81.2</v>
       </c>
       <c r="D34" s="1">
-        <v>73.099999999999994</v>
+        <v>73.1</v>
       </c>
       <c r="E34" s="1">
         <v>61.3</v>
@@ -1772,26 +2328,26 @@
         <v>27390</v>
       </c>
       <c r="K34" s="1">
-        <v>0.77210000000000001</v>
+        <v>0.7721</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="1"/>
-        <v>2.4000000000000057</v>
+        <v>2.40000000000001</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="2"/>
-        <v>0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.400000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B35" s="2">
-        <v>77.900000000000006</v>
+        <v>77.9</v>
       </c>
       <c r="C35" s="1">
-        <v>76.599999999999994</v>
+        <v>76.6</v>
       </c>
       <c r="D35" s="1">
         <v>69.5</v>
@@ -1809,13 +2365,13 @@
         <v>57.5</v>
       </c>
       <c r="I35" s="1">
-        <v>68.099999999999994</v>
+        <v>68.1</v>
       </c>
       <c r="J35" s="1">
         <v>30301</v>
       </c>
       <c r="K35" s="1">
-        <v>0.68920000000000003</v>
+        <v>0.6892</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="1"/>
@@ -1826,18 +2382,18 @@
         <v>-3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13">
       <c r="A38" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B38" s="1">
         <v>83.6</v>
@@ -1852,7 +2408,7 @@
         <v>61.4</v>
       </c>
       <c r="F38" s="1">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="G38" s="1">
         <v>65.8</v>
@@ -1861,26 +2417,26 @@
         <v>58.2</v>
       </c>
       <c r="I38" s="1">
-        <v>71.400000000000006</v>
+        <v>71.4</v>
       </c>
       <c r="J38" s="1">
         <v>36694</v>
       </c>
       <c r="K38" s="1">
-        <v>0.72640000000000005</v>
+        <v>0.7264</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" ref="L38:L52" si="3">I38-I$2</f>
-        <v>1.8000000000000114</v>
+        <v>1.80000000000001</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" ref="M38:M52" si="4">I38-I4</f>
-        <v>0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B39" s="1">
         <v>80</v>
@@ -1895,7 +2451,7 @@
         <v>59.4</v>
       </c>
       <c r="F39" s="1">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="G39" s="1">
         <v>65.7</v>
@@ -1910,20 +2466,20 @@
         <v>56920</v>
       </c>
       <c r="K39" s="1">
-        <v>0.76559999999999995</v>
+        <v>0.7656</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="3"/>
-        <v>0.20000000000000284</v>
+        <v>0.200000000000003</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="4"/>
-        <v>-0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.200000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
         <v>75.3</v>
@@ -1938,7 +2494,7 @@
         <v>56.4</v>
       </c>
       <c r="F40" s="1">
-        <v>67.599999999999994</v>
+        <v>67.6</v>
       </c>
       <c r="G40" s="1">
         <v>63.4</v>
@@ -1953,20 +2509,20 @@
         <v>56920</v>
       </c>
       <c r="K40" s="1">
-        <v>0.76559999999999995</v>
+        <v>0.7656</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="3"/>
-        <v>-3.0999999999999943</v>
+        <v>-3.09999999999999</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="4"/>
         <v>-3.5</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13">
       <c r="A41" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
         <v>83.3</v>
@@ -1975,7 +2531,7 @@
         <v>80.7</v>
       </c>
       <c r="D41" s="1">
-        <v>72.599999999999994</v>
+        <v>72.6</v>
       </c>
       <c r="E41" s="1">
         <v>61.2</v>
@@ -1984,19 +2540,19 @@
         <v>70.2</v>
       </c>
       <c r="G41" s="1">
-        <v>65.599999999999994</v>
+        <v>65.6</v>
       </c>
       <c r="H41" s="1">
         <v>58.2</v>
       </c>
       <c r="I41" s="1">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="J41" s="1">
         <v>29745</v>
       </c>
       <c r="K41" s="1">
-        <v>0.72409999999999997</v>
+        <v>0.7241</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="3"/>
@@ -2004,15 +2560,15 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" si="4"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0999999999999943</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B42" s="1">
-        <v>81.900000000000006</v>
+        <v>81.9</v>
       </c>
       <c r="C42" s="1">
         <v>80.3</v>
@@ -2033,13 +2589,13 @@
         <v>59.3</v>
       </c>
       <c r="I42" s="1">
-        <v>71.099999999999994</v>
+        <v>71.1</v>
       </c>
       <c r="J42" s="1">
         <v>39763</v>
       </c>
       <c r="K42" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.7647</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="3"/>
@@ -2047,15 +2603,15 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" si="4"/>
-        <v>-0.10000000000000853</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.100000000000009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1">
-        <v>77.400000000000006</v>
+        <v>77.4</v>
       </c>
       <c r="C43" s="1">
         <v>76.5</v>
@@ -2067,7 +2623,7 @@
         <v>57.6</v>
       </c>
       <c r="F43" s="1">
-        <v>68.599999999999994</v>
+        <v>68.6</v>
       </c>
       <c r="G43" s="1">
         <v>64.5</v>
@@ -2082,20 +2638,20 @@
         <v>39763</v>
       </c>
       <c r="K43" s="1">
-        <v>0.76470000000000005</v>
+        <v>0.7647</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="3"/>
-        <v>-1.5999999999999943</v>
+        <v>-1.59999999999999</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="4"/>
-        <v>-3.2000000000000028</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1">
         <v>82.8</v>
@@ -2110,7 +2666,7 @@
         <v>61.1</v>
       </c>
       <c r="F44" s="1">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="G44" s="1">
         <v>65.5</v>
@@ -2119,26 +2675,26 @@
         <v>58.1</v>
       </c>
       <c r="I44" s="1">
-        <v>70.900000000000006</v>
+        <v>70.9</v>
       </c>
       <c r="J44" s="1">
         <v>26915</v>
       </c>
       <c r="K44" s="1">
-        <v>0.72230000000000005</v>
+        <v>0.7223</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="3"/>
-        <v>1.3000000000000114</v>
+        <v>1.30000000000001</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="4"/>
-        <v>0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.200000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B45" s="1">
         <v>82.5</v>
@@ -2147,47 +2703,47 @@
         <v>80.7</v>
       </c>
       <c r="D45" s="1">
-        <v>72.599999999999994</v>
+        <v>72.6</v>
       </c>
       <c r="E45" s="1">
         <v>60.8</v>
       </c>
       <c r="F45" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="G45" s="1">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="H45" s="1">
         <v>59.4</v>
       </c>
       <c r="I45" s="1">
-        <v>71.400000000000006</v>
+        <v>71.4</v>
       </c>
       <c r="J45" s="1">
         <v>33318</v>
       </c>
       <c r="K45" s="1">
-        <v>0.76200000000000001</v>
+        <v>0.762</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="3"/>
-        <v>1.8000000000000114</v>
+        <v>1.80000000000001</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="4"/>
-        <v>-9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.0999999999999943</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B46" s="1">
         <v>78.3</v>
       </c>
       <c r="C46" s="1">
-        <v>77.099999999999994</v>
+        <v>77.1</v>
       </c>
       <c r="D46" s="1">
         <v>69.7</v>
@@ -2196,7 +2752,7 @@
         <v>58.1</v>
       </c>
       <c r="F46" s="1">
-        <v>68.900000000000006</v>
+        <v>68.9</v>
       </c>
       <c r="G46" s="1">
         <v>64.8</v>
@@ -2211,20 +2767,20 @@
         <v>33318</v>
       </c>
       <c r="K46" s="1">
-        <v>0.76200000000000001</v>
+        <v>0.762</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="3"/>
-        <v>-1.0999999999999943</v>
+        <v>-1.09999999999999</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="4"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B47" s="1">
         <v>82.4</v>
@@ -2242,19 +2798,19 @@
         <v>69.7</v>
       </c>
       <c r="G47" s="1">
-        <v>65.400000000000006</v>
+        <v>65.4</v>
       </c>
       <c r="H47" s="1">
         <v>58</v>
       </c>
       <c r="I47" s="1">
-        <v>70.599999999999994</v>
+        <v>70.6</v>
       </c>
       <c r="J47" s="1">
         <v>24995</v>
       </c>
       <c r="K47" s="1">
-        <v>0.72050000000000003</v>
+        <v>0.7205</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="3"/>
@@ -2262,12 +2818,12 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" si="4"/>
-        <v>9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.0999999999999943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B48" s="1">
         <v>82.8</v>
@@ -2282,10 +2838,10 @@
         <v>60.9</v>
       </c>
       <c r="F48" s="1">
-        <v>71.599999999999994</v>
+        <v>71.6</v>
       </c>
       <c r="G48" s="1">
-        <v>66.900000000000006</v>
+        <v>66.9</v>
       </c>
       <c r="H48" s="1">
         <v>59.3</v>
@@ -2301,16 +2857,16 @@
       </c>
       <c r="L48" s="1">
         <f t="shared" si="3"/>
-        <v>1.9000000000000057</v>
+        <v>1.90000000000001</v>
       </c>
       <c r="M48" s="1">
         <f t="shared" si="4"/>
-        <v>-9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.0999999999999943</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1">
         <v>79</v>
@@ -2319,16 +2875,16 @@
         <v>77.7</v>
       </c>
       <c r="D49" s="1">
-        <v>70.099999999999994</v>
+        <v>70.1</v>
       </c>
       <c r="E49" s="1">
         <v>58.4</v>
       </c>
       <c r="F49" s="1">
-        <v>69.099999999999994</v>
+        <v>69.1</v>
       </c>
       <c r="G49" s="1">
-        <v>64.900000000000006</v>
+        <v>64.9</v>
       </c>
       <c r="H49" s="1">
         <v>57.3</v>
@@ -2344,25 +2900,25 @@
       </c>
       <c r="L49" s="1">
         <f t="shared" si="3"/>
-        <v>-0.79999999999999716</v>
+        <v>-0.799999999999997</v>
       </c>
       <c r="M49" s="1">
         <f t="shared" si="4"/>
-        <v>-2.7999999999999972</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B50" s="1">
-        <v>81.900000000000006</v>
+        <v>81.9</v>
       </c>
       <c r="C50" s="1">
         <v>79.5</v>
       </c>
       <c r="D50" s="1">
-        <v>72.099999999999994</v>
+        <v>72.1</v>
       </c>
       <c r="E50" s="1">
         <v>60.8</v>
@@ -2377,26 +2933,26 @@
         <v>57.9</v>
       </c>
       <c r="I50" s="1">
-        <v>70.400000000000006</v>
+        <v>70.4</v>
       </c>
       <c r="J50" s="1">
         <v>23476</v>
       </c>
       <c r="K50" s="1">
-        <v>0.71760000000000002</v>
+        <v>0.7176</v>
       </c>
       <c r="L50" s="1">
         <f t="shared" si="3"/>
-        <v>0.80000000000001137</v>
+        <v>0.800000000000011</v>
       </c>
       <c r="M50" s="1">
         <f t="shared" si="4"/>
-        <v>0.10000000000000853</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.100000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B51" s="1">
         <v>82.9</v>
@@ -2426,20 +2982,20 @@
         <v>26763</v>
       </c>
       <c r="K51" s="1">
-        <v>0.75390000000000001</v>
+        <v>0.7539</v>
       </c>
       <c r="L51" s="1">
         <f t="shared" si="3"/>
-        <v>1.9000000000000057</v>
+        <v>1.90000000000001</v>
       </c>
       <c r="M51" s="1">
         <f t="shared" si="4"/>
-        <v>-9.9999999999994316E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-0.0999999999999943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B52" s="1">
         <v>79.5</v>
@@ -2469,43 +3025,66 @@
         <v>26763</v>
       </c>
       <c r="K52" s="1">
-        <v>0.75390000000000001</v>
+        <v>0.7539</v>
       </c>
       <c r="L52" s="1">
         <f t="shared" si="3"/>
-        <v>-0.59999999999999432</v>
+        <v>-0.599999999999994</v>
       </c>
       <c r="M52" s="1">
         <f t="shared" si="4"/>
-        <v>-2.5999999999999943</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+        <v>-2.59999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:2">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:2">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:2">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:2">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:2">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:2">
       <c r="B60" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I38:I52">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K$1:K$1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I53:I54 I1:I37 I70:I1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -2518,31 +3097,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:I52">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>